--- a/group08/八组作业完成情况.xlsx
+++ b/group08/八组作业完成情况.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Great\Desktop\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Great\Documents\coding2017\group08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -645,7 +645,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -950,8 +950,8 @@
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9">
